--- a/out/results_2024-02-21.xlsx
+++ b/out/results_2024-02-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>9-4-10</t>
+  </si>
+  <si>
+    <t>4.187</t>
   </si>
 </sst>
 </file>
@@ -316,9 +319,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,7 +623,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -889,8 +891,8 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1">
-        <v>4090</v>
+      <c r="D12" t="s">
+        <v>89</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
